--- a/prep/data/Datos_paises.xlsx
+++ b/prep/data/Datos_paises.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588A24CB-FD60-486B-8B39-8E32A4D1E021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,15 +52,6 @@
     <t>ARGENTINA</t>
   </si>
   <si>
-    <t>Nuevos casos HIV en población</t>
-  </si>
-  <si>
-    <t>Casos Prevalentes HIV en población</t>
-  </si>
-  <si>
-    <t>% de HIV en la población</t>
-  </si>
-  <si>
     <t>% de hiv diagnosticados</t>
   </si>
   <si>
@@ -73,12 +65,21 @@
   </si>
   <si>
     <t>pais</t>
+  </si>
+  <si>
+    <t>% de HIV en la poblacion</t>
+  </si>
+  <si>
+    <t>Casos Prevalentes HIV en poblacion</t>
+  </si>
+  <si>
+    <t>Nuevos casos HIV en poblacion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -500,48 +501,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="8" width="20.21875" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="8" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
